--- a/AI.xlsx
+++ b/AI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13355" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>工位号</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>e6fs</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>e9</t>
+  </si>
+  <si>
+    <t>e10</t>
   </si>
   <si>
     <t>e1kz</t>
@@ -100,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,37 +126,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,13 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,7 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,48 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,22 +267,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,34 +474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,16 +504,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +535,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -558,6 +550,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,145 +578,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1106,6 +1118,26 @@
     <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1153,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1133,37 +1165,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1189,30 +1221,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1259,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1238,30 +1270,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/AI.xlsx
+++ b/AI.xlsx
@@ -1,145 +1,373 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lh\Desktop\p-test\lab\LABb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17124" windowHeight="5892" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AI" sheetId="1" r:id="rId1"/>
-    <sheet name="AO" sheetId="2" r:id="rId2"/>
-    <sheet name="DI" sheetId="3" r:id="rId3"/>
-    <sheet name="DO" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AO" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DO" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>工位号</t>
-  </si>
-  <si>
-    <t>e0fs</t>
-  </si>
-  <si>
-    <t>e1fs</t>
-  </si>
-  <si>
-    <t>e2fs</t>
-  </si>
-  <si>
-    <t>e3fs</t>
-  </si>
-  <si>
-    <t>e4fs</t>
-  </si>
-  <si>
-    <t>e5fs</t>
-  </si>
-  <si>
-    <t>e6fs</t>
-  </si>
-  <si>
-    <t>e7</t>
-  </si>
-  <si>
-    <t>e8</t>
-  </si>
-  <si>
-    <t>e9</t>
-  </si>
-  <si>
-    <t>e10</t>
-  </si>
-  <si>
-    <t>e1kz</t>
-  </si>
-  <si>
-    <t>p5kz</t>
-  </si>
-  <si>
-    <t>p6kz</t>
-  </si>
-  <si>
-    <t>p7kz</t>
-  </si>
-  <si>
-    <t>e5kz</t>
-  </si>
-  <si>
-    <t>e6kz</t>
-  </si>
-  <si>
-    <t>e7kz</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>测量值</t>
-  </si>
-  <si>
-    <t>b5_k</t>
-  </si>
-  <si>
-    <t>b5_g</t>
-  </si>
-  <si>
-    <t>b6_k</t>
-  </si>
-  <si>
-    <t>b6_g</t>
-  </si>
-  <si>
-    <t>b5_o</t>
-  </si>
-  <si>
-    <t>b5_c</t>
-  </si>
-  <si>
-    <t>b6_o</t>
-  </si>
-  <si>
-    <t>b6_c</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="33">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,30 +375,379 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -217,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,282 +1032,506 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>e0fs</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>e1fs</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>e2fs</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>e3fs</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>e4fs</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>e5fs</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>e6fs</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>e7</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>e8</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>e9</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>e10</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>e1kz</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>p5kz</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>p6kz</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>p7kz</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>e5kz</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>e6kz</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>e7kz</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>24</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>地址</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>测量值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>b5_k</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>b5_g</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>b6_k</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>b6_g</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>工位号</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>地址</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>测量值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>b5_o</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>b5_c</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>b6_o</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>b6_c</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>